--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_pour_enfants/Hôpital_pour_enfants.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_pour_enfants/Hôpital_pour_enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_pour_enfants</t>
+          <t>Hôpital_pour_enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hôpital pour enfants est un hôpital public spécialisé dans le traitement des maladies enfantines et des soins pédiatriques. Les hôpitaux pour enfants sont le plus souvent associés à un centre hospitalier universitaire en France. La plupart des hôpitaux nationaux offre un pôle médical ou un département spécialisé pour l'enfance et l'adolescence.
 Au cours du XXe siècle, la médecine généraliste pour enfants est devenue une médecine particulière à part entière séparée de la médecine spécialiste pour enfants adulte à l'age de 6 mois.
